--- a/dmd_sample.xlsx
+++ b/dmd_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WALLEX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AE055-2E1C-4D4C-B513-8C61394DBA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C8B8B8-174E-49F9-B183-C275C53AC749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,39 +37,39 @@
     <t>محصولات فریزدرای شده و زهر زنبور عسل  و دارو از زعفران</t>
   </si>
   <si>
+    <t>قرار دادن برش پلاسما و برش لیزر روی CNC هوا برش</t>
+  </si>
+  <si>
+    <t>استفاده از فيلر كارخانه آسفالت</t>
+  </si>
+  <si>
     <t>فقدان تکنولوژی، ماشین آلات، فرمولاسیون و سرمایه لازم برای تولید محصولات فناورانه ذیل:
 1- محصولات فریزدرای شده  2- زهر زنبور عسل  3- دارو از زعفران
 بنابراین، نیاز است از فناوری، ماشین آلات و فرمولاسیون کشورهای دیگر  استفاده گردد و در این زمینه سرمایه گذاری مشترک مورد نیاز است.</t>
   </si>
   <si>
+    <t>این کرم های از انواع روغن های گیاهی و ترکیب آنها تولید می شود و نمونه تولید شده نیز موجود می باشد. و همچنین پماد ضد درد که کاملا و 100% گیاهی می باشد.</t>
+  </si>
+  <si>
+    <t>با توجه به متفاوت بودن سطح حساسیت و دقت مدنظر برای قطعات مختلف، در بسیاری از موارد پیش می آید که بخشی از یک قطعه صنعتی با تکنولوژی پلاسما انجام شود، بخش با لیزر و بخشی دیگر با برش هوا که برای این امر لازم است قطعه موردنظر جهت انجام هر مرحله از این ماشین کاری ها، جابجا شود و این جابجایی باعث بروز خطا، اتلاف وقت و افزایش ضایعات می گردد. باتوجه به اینکه مشتریان جهت کنترل هزینه ها( بعلت متفاوت بودن هزینه لیزر، پلاسما و برش هوا) تقاضا دارند هر بخش قطعات با یکی از این تکنولوژی ها استفاده شود و تنها در بخش های حساس قطعات از تکنولوژی پیشرفته استفاده نمایند، شرکت کیان صنعت رادمهر کارمانیا بعنوان یکی از واحدهای قطعه سازی خواستار بهره مندی از یک فناوری می باشد که کلیه تکنولوژی های لیزر، پلاسما و هوا برش را در یک دستگاه CNC داشته باشد تا دیگر نیاز به جابجایی قطعات حین ساخت در میان دستگاه های مختلف نباشد و احتمال خطا و مدت زمان میانگین تولید قطعات کاهش یابد و از این طریق بتوان بهای تمام شده قطعات،کیفیت و دقت ابعاد قطعات نیز در حد بسیار مطلوب حفظ گردد. جهت ارتباط با صاحب نیاز با شماره 09137359001  تماس حاصل فرمایید.</t>
+  </si>
+  <si>
+    <t>فيلر توليدي به عنوان ضايعات در كارخانجات آسفالت، دور ريخته ميشود. به دليل ريز بودن ذرات، نقش پركنندگي مناسبي براي افزايش استحكام در توليدات و فرآورده هاي بتني خواهد داشت. در نتيجه با انجام فرآوري هاي مخصوص، احتمال استفاده به صورت گسترده را خواهد داشت</t>
+  </si>
+  <si>
     <t>[ 'زهر',' زنبور','عسل', 'دارو','زعفران']</t>
   </si>
   <si>
-    <t>تولید کرم هاهای گیاهی نرم کننده و مرطوب کننده پوست و .... و پماد ضد درد گیاهی</t>
-  </si>
-  <si>
     <t>['کرم', مرطوب-کننده',پوست','چرب']</t>
   </si>
   <si>
-    <t>قرار دادن برش پلاسما و برش لیزر روی CNC هوا برش</t>
-  </si>
-  <si>
-    <t>با توجه به متفاوت بودن سطح حساسیت و دقت مدنظر برای قطعات مختلف، در بسیاری از موارد پیش می آید که بخشی از یک قطعه صنعتی با تکنولوژی پلاسما انجام شود، بخش با لیزر و بخشی دیگر با برش هوا که برای این امر لازم است قطعه موردنظر جهت انجام هر مرحله از این ماشین کاری ها، جابجا شود و این جابجایی باعث بروز خطا، اتلاف وقت و افزایش ضایعات می گردد. باتوجه به اینکه مشتریان جهت کنترل هزینه ها( بعلت متفاوت بودن هزینه لیزر، پلاسما و برش هوا) تقاضا دارند هر بخش قطعات با یکی از این تکنولوژی ها استفاده شود و تنها در بخش های حساس قطعات از تکنولوژی پیشرفته استفاده نمایند، شرکت کیان صنعت رادمهر کارمانیا بعنوان یکی از واحدهای قطعه سازی خواستار بهره مندی از یک فناوری می باشد که کلیه تکنولوژی های لیزر، پلاسما و هوا برش را در یک دستگاه CNC داشته باشد تا دیگر نیاز به جابجایی قطعات حین ساخت در میان دستگاه های مختلف نباشد و احتمال خطا و مدت زمان میانگین تولید قطعات کاهش یابد و از این طریق بتوان بهای تمام شده قطعات،کیفیت و دقت ابعاد قطعات نیز در حد بسیار مطلوب حفظ گردد. جهت ارتباط با صاحب نیاز با شماره 09137359001  تماس حاصل فرمایید.</t>
-  </si>
-  <si>
     <t>['پلاسما','لیزر','CNC','هوا-برش']</t>
   </si>
   <si>
-    <t>استفاده از فيلر كارخانه آسفالت</t>
-  </si>
-  <si>
     <t>['آسفالتی', 'فيلر كارخانه']</t>
   </si>
   <si>
-    <t>فيلر توليدي به عنوان ضايعات در كارخانجات آسفالت، دور ريخته ميشود. به دليل ريز بودن ذرات، نقش پركنندگي مناسبي براي افزايش استحكام در توليدات و فرآورده هاي بتني خواهد داشت. در نتيجه با انجام فرآوري هاي مخصوص، احتمال استفاده به صورت گسترده را خواهد داشت</t>
-  </si>
-  <si>
-    <t>این کرم های از انواع روغن های گیاهی و ترکیب آنها تولید می شود و نمونه تولید شده نیز موجود می باشد. و همچنین پماد ضد درد که کاملا و 100% گیاهی می باشد.</t>
+    <t>تولید کرم های گیاهی نرم کننده و مرطوب کننده پوست و .... و پماد ضد درد گیاهی</t>
   </si>
 </sst>
 </file>
@@ -440,14 +440,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="194.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -472,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -483,13 +481,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -497,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -511,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
